--- a/PruebaEscritorio_I2.xlsx
+++ b/PruebaEscritorio_I2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,12 +80,6 @@
     <t>señal[1]-&gt;0</t>
   </si>
   <si>
-    <t>Caso 3 - Ideal</t>
-  </si>
-  <si>
-    <t>Caso 3 - Ciclo infinito</t>
-  </si>
-  <si>
     <t>∞</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>Fin proceso2()</t>
   </si>
   <si>
-    <t>Caso 3 - Caso diferentes procesos</t>
-  </si>
-  <si>
     <t>2ms</t>
   </si>
   <si>
@@ -105,6 +96,15 @@
   </si>
   <si>
     <t>13790ms</t>
+  </si>
+  <si>
+    <t>Caso 2 - Ideal</t>
+  </si>
+  <si>
+    <t>Caso 2 - Ciclo infinito</t>
+  </si>
+  <si>
+    <t>Caso 2 - Caso diferentes procesos</t>
   </si>
 </sst>
 </file>
@@ -387,6 +387,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,6 +419,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -419,42 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,14 +798,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -817,10 +817,10 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -905,7 +905,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -917,7 +917,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -929,7 +929,7 @@
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -941,7 +941,7 @@
       <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -953,29 +953,29 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -987,10 +987,10 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -1051,11 +1051,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1075,71 +1075,71 @@
         <v>1</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="14"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -1151,10 +1151,10 @@
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -1239,7 +1239,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
@@ -1263,7 +1263,7 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -1275,7 +1275,7 @@
       <c r="E39" s="6">
         <v>0</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
@@ -1287,22 +1287,27 @@
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="16"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="B41:E41"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:E2"/>
@@ -1314,11 +1319,6 @@
     <mergeCell ref="B23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="B41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
